--- a/待改进列表.xlsx
+++ b/待改进列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,26 @@
   </si>
   <si>
     <t>模块管理中删除掉“护理模板”，“门诊模板”，“病历文书类型设置”，“病历文书类型组设置”几个菜单入口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王德红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨建波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李政</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王德红</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -189,16 +209,9 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -220,6 +233,16 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -285,7 +308,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2942168</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>132396</xdr:rowOff>
+      <xdr:rowOff>132397</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -316,7 +339,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -340,7 +363,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5630333" y="5291667"/>
+          <a:off x="6021917" y="3905250"/>
           <a:ext cx="3302000" cy="1197674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -354,8 +377,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E18" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:E18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F18" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F18">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>
@@ -363,12 +386,13 @@
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="5">
+  <tableColumns count="6">
     <tableColumn id="1" name="序号" dataDxfId="5"/>
     <tableColumn id="2" name="描述" dataDxfId="4"/>
     <tableColumn id="3" name="优先级" dataDxfId="3"/>
     <tableColumn id="4" name="备注" dataDxfId="2"/>
     <tableColumn id="5" name="状态" dataDxfId="1"/>
+    <tableColumn id="6" name="责任人" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -664,11 +688,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -681,7 +705,7 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,8 +721,11 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="27" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -712,7 +739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -722,8 +749,11 @@
       <c r="C3" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -733,8 +763,11 @@
       <c r="C4" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -744,8 +777,11 @@
       <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -756,7 +792,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -767,7 +803,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -777,8 +813,11 @@
       <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -788,8 +827,11 @@
       <c r="C9" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -799,8 +841,11 @@
       <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -810,8 +855,11 @@
       <c r="C11" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -828,7 +876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -841,8 +889,11 @@
       <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -856,7 +907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -870,7 +921,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -880,8 +931,11 @@
       <c r="C16" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -891,8 +945,11 @@
       <c r="C17" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="E17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -901,12 +958,15 @@
       </c>
       <c r="C18" s="6" t="s">
         <v>24</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"优先"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/待改进列表.xlsx
+++ b/待改进列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>左侧患者列表，显示的内容分别为“姓名”，“住院号”，“手机号”，“病历模板名”（目前显示为诊断）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>左侧患者列表中，默认要展示出第1页患者信息，按时间倒序排列。现状是点击“搜索”之后才显示数据。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,47 +69,122 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>病历模板中的医院名，要改为“国家康复辅具研究中心”，科室要显示为“矫形骨科”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页的图片显示错乱，图片太大所致。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右上方有个“重新选择模板”按钮，将其去掉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页，右上方的菜单下拉框，病历模板中，均要改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建患者无反应，新建后应该默认选中此患者。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的“入院时间”改为“入院日期”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>优先</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病历模板中的医院名，要改为“国家康复辅具研究中心”，科室要显示为“矫形骨科”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录页的图片显示错乱，图片太大所致。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右上方有个“重新选择模板”按钮，将其去掉。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录页，右上方的菜单下拉框，病历模板中，均要改。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建患者无反应，新建后应该默认选中此患者。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级搜索统一名称。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有的“入院时间”改为“入院日期”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不优先</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品的快捷方式名直接按合同名称，改为“定制病例资料管理系统”。</t>
+    <t>责任人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王德红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨建波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李政</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王德红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页的图片显示错乱。</t>
+  </si>
+  <si>
+    <t>病历模板中的医院名，要改为“国家康复辅具研究中心附属康复医院”-“矫形骨科”。</t>
+  </si>
+  <si>
+    <t>新建患者无反应。</t>
+  </si>
+  <si>
+    <t>姓名检索失效；</t>
+  </si>
+  <si>
+    <t>保留医院+科室；</t>
+  </si>
+  <si>
+    <t>不需要审核流程（保存后即可公开）；</t>
+  </si>
+  <si>
+    <t>写模板，支持单选，下拉框；</t>
+  </si>
+  <si>
+    <t>随访需求（纸上）：</t>
+  </si>
+  <si>
+    <t>多用户管理；</t>
+  </si>
+  <si>
+    <t>产品的快捷方式名直接按合同名称，改为“病例管理系统”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建患者的必须项包括：住院号、姓名，性别、年龄/出生日期，联系地址（增加区县码）、入院日期。增加红点放在相当标签上。当这些没有值时，点击“保存”时增加提醒信息不能保存。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建患者时目前没有“入院日期”，请补充入院日期；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快捷方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建患者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从左向右显示内容依次为：姓名，性别，年龄，诊断（当患者有多个时，要显示最早一个值），入院日期（当患者有多个时，要显示最早一个值）；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建病历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建病历之后，需要在病历列表中能看到。目前保存后无法看到。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -121,27 +192,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模块管理中删除掉“护理模板”，“门诊模板”，“病历文书类型设置”，“病历文书类型组设置”几个菜单入口。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>责任人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王德红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨建波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李政</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王德红</t>
+    <t>病历管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随访管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级搜索统一名称。有叫“搜索”，有叫“检索”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块管理中隐藏掉“护理模板”，“门诊模板”，“病历文书类型设置”，“病历文书类型组设置”几个菜单入口。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +232,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +242,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -185,54 +283,157 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -261,15 +462,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>2838095</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1523810</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -299,20 +500,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>63501</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>338668</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2942168</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>132397</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3302000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1197674</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="7" name="图片 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -325,45 +526,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5693834" y="4508501"/>
-          <a:ext cx="2878667" cy="301730"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3302000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1197674</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6021917" y="3905250"/>
+          <a:off x="6138333" y="5334000"/>
           <a:ext cx="3302000" cy="1197674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -377,22 +540,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F18" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F18">
-    <filterColumn colId="2">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="6">
-    <tableColumn id="1" name="序号" dataDxfId="5"/>
-    <tableColumn id="2" name="描述" dataDxfId="4"/>
-    <tableColumn id="3" name="优先级" dataDxfId="3"/>
-    <tableColumn id="4" name="备注" dataDxfId="2"/>
-    <tableColumn id="5" name="状态" dataDxfId="1"/>
-    <tableColumn id="6" name="责任人" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G32" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:G32"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="序号" dataDxfId="8"/>
+    <tableColumn id="7" name="模块名" dataDxfId="7"/>
+    <tableColumn id="2" name="描述" dataDxfId="6"/>
+    <tableColumn id="3" name="优先级" dataDxfId="5"/>
+    <tableColumn id="4" name="备注" dataDxfId="4"/>
+    <tableColumn id="6" name="责任人" dataDxfId="3"/>
+    <tableColumn id="5" name="状态" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -688,285 +845,502 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="57.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="46.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="11.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="57.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12" style="4" customWidth="1"/>
+    <col min="5" max="5" width="46.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9" style="7"/>
+    <col min="7" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="27" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="F23" s="3"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F26" s="3"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.15">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="B30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="B31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="B32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"优先"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/待改进列表.xlsx
+++ b/待改进列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,9 +135,6 @@
     <t>不需要审核流程（保存后即可公开）；</t>
   </si>
   <si>
-    <t>写模板，支持单选，下拉框；</t>
-  </si>
-  <si>
     <t>随访需求（纸上）：</t>
   </si>
   <si>
@@ -225,6 +222,14 @@
   </si>
   <si>
     <t>模块管理中隐藏掉“护理模板”，“门诊模板”，“病历文书类型设置”，“病历文书类型组设置”几个菜单入口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病历新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按模板要求，有的录入项需要支持单选，下拉框等控件。整个病历要支持TAB键下移焦点。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -309,34 +314,6 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -434,6 +411,34 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -540,16 +545,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G32" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G32" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G32"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="序号" dataDxfId="8"/>
-    <tableColumn id="7" name="模块名" dataDxfId="7"/>
-    <tableColumn id="2" name="描述" dataDxfId="6"/>
-    <tableColumn id="3" name="优先级" dataDxfId="5"/>
-    <tableColumn id="4" name="备注" dataDxfId="4"/>
-    <tableColumn id="6" name="责任人" dataDxfId="3"/>
-    <tableColumn id="5" name="状态" dataDxfId="2"/>
+    <tableColumn id="1" name="序号" dataDxfId="6"/>
+    <tableColumn id="7" name="模块名" dataDxfId="5"/>
+    <tableColumn id="2" name="描述" dataDxfId="4"/>
+    <tableColumn id="3" name="优先级" dataDxfId="3"/>
+    <tableColumn id="4" name="备注" dataDxfId="2"/>
+    <tableColumn id="6" name="责任人" dataDxfId="1"/>
+    <tableColumn id="5" name="状态" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -849,7 +854,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -869,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -893,10 +898,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
@@ -909,7 +914,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>3</v>
@@ -925,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>6</v>
@@ -941,7 +946,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>4</v>
@@ -957,7 +962,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>10</v>
@@ -984,7 +989,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>15</v>
@@ -1000,7 +1005,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>8</v>
@@ -1016,7 +1021,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>9</v>
@@ -1032,7 +1037,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>14</v>
@@ -1049,7 +1054,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>18</v>
@@ -1068,7 +1073,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>11</v>
@@ -1084,7 +1089,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>16</v>
@@ -1100,10 +1105,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
@@ -1116,7 +1121,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>19</v>
@@ -1132,10 +1137,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>24</v>
@@ -1148,7 +1153,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>7</v>
@@ -1161,14 +1166,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
@@ -1176,7 +1181,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>8</v>
@@ -1189,10 +1194,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="1"/>
@@ -1202,7 +1207,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>27</v>
@@ -1215,7 +1220,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>28</v>
@@ -1228,7 +1233,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>29</v>
@@ -1241,7 +1246,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>30</v>
@@ -1254,7 +1259,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>31</v>
@@ -1262,12 +1267,15 @@
       <c r="F26" s="3"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>26</v>
       </c>
+      <c r="B27" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="C27" s="5" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="1"/>
@@ -1277,10 +1285,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="1"/>
@@ -1290,10 +1298,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="1"/>
@@ -1303,10 +1311,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="1"/>
@@ -1316,10 +1324,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="1"/>
@@ -1329,10 +1337,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="1"/>

--- a/待改进列表.xlsx
+++ b/待改进列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,38 @@
   </si>
   <si>
     <t>按模板要求，有的录入项需要支持单选，下拉框等控件。整个病历要支持TAB键下移焦点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨建波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李政</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王德红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -268,12 +300,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -288,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -309,6 +347,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -475,8 +528,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2838095</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1523810</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>285560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -513,8 +566,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3302000</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1197674</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>246</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -546,7 +599,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G32" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G32"/>
+  <autoFilter ref="A1:G32">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="王德红"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
     <tableColumn id="1" name="序号" dataDxfId="6"/>
     <tableColumn id="7" name="模块名" dataDxfId="5"/>
@@ -850,16 +909,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="26" style="4" customWidth="1"/>
     <col min="3" max="3" width="57.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="12" style="4" customWidth="1"/>
     <col min="5" max="5" width="46.75" style="6" customWidth="1"/>
@@ -869,7 +929,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -893,7 +953,7 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -909,7 +969,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -925,7 +985,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -941,7 +1001,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -956,8 +1016,11 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J5" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -967,11 +1030,13 @@
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -984,7 +1049,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1000,7 +1065,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1013,10 +1078,12 @@
       <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1032,7 +1099,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1045,11 +1112,15 @@
       <c r="E11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1068,7 +1139,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1078,13 +1149,15 @@
       <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="G13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1094,13 +1167,15 @@
       <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1111,12 +1186,12 @@
         <v>52</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1132,7 +1207,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="56.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1148,7 +1223,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1158,10 +1233,12 @@
       <c r="C18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1171,64 +1248,78 @@
       <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="G19" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
+    <row r="20" spans="1:8" ht="37.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
+      <c r="D20" s="8"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="37.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
+      <c r="D21" s="8"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" ht="37.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
+    <row r="23" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D23" s="8"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1238,10 +1329,12 @@
       <c r="C24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1251,10 +1344,14 @@
       <c r="C25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1264,10 +1361,12 @@
       <c r="C26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="37.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1277,10 +1376,12 @@
       <c r="C27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1290,21 +1391,27 @@
       <c r="C28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
+    <row r="29" spans="1:8" ht="37.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="1"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
@@ -1316,10 +1423,14 @@
       <c r="C30" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1332,7 +1443,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1345,6 +1456,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="1"/>
     </row>
+    <row r="33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">

--- a/待改进列表.xlsx
+++ b/待改进列表.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="需求列表" sheetId="1" r:id="rId1"/>
+    <sheet name="登录页发版需求-李政" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>病历模板中的医院名，要改为“国家康复辅具研究中心”，科室要显示为“矫形骨科”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登录页的图片显示错乱，图片太大所致。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,68 +117,150 @@
     <t>登录页的图片显示错乱。</t>
   </si>
   <si>
+    <t>新建患者无反应。</t>
+  </si>
+  <si>
+    <t>姓名检索失效；</t>
+  </si>
+  <si>
+    <t>保留医院+科室；</t>
+  </si>
+  <si>
+    <t>不需要审核流程（保存后即可公开）；</t>
+  </si>
+  <si>
+    <t>随访需求（纸上）：</t>
+  </si>
+  <si>
+    <t>产品的快捷方式名直接按合同名称，改为“病例管理系统”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建患者的必须项包括：住院号、姓名，性别、年龄/出生日期，联系地址（增加区县码）、入院日期。增加红点放在相当标签上。当这些没有值时，点击“保存”时增加提醒信息不能保存。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建患者时目前没有“入院日期”，请补充入院日期；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快捷方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建患者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从左向右显示内容依次为：姓名，性别，年龄，诊断（当患者有多个时，要显示最早一个值），入院日期（当患者有多个时，要显示最早一个值）；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建病历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建病历之后，需要在病历列表中能看到。目前保存后无法看到。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病历管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随访管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级搜索统一名称。有叫“搜索”，有叫“检索”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块管理中隐藏掉“护理模板”，“门诊模板”，“病历文书类型设置”，“病历文书类型组设置”几个菜单入口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病历新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按模板要求，有的录入项需要支持单选，下拉框等控件。整个病历要支持TAB键下移焦点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨建波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李政</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王德红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>病历模板中的医院名，要改为“国家康复辅具研究中心附属康复医院”-“矫形骨科”。</t>
-  </si>
-  <si>
-    <t>新建患者无反应。</t>
-  </si>
-  <si>
-    <t>姓名检索失效；</t>
-  </si>
-  <si>
-    <t>保留医院+科室；</t>
-  </si>
-  <si>
-    <t>不需要审核流程（保存后即可公开）；</t>
-  </si>
-  <si>
-    <t>随访需求（纸上）：</t>
-  </si>
-  <si>
-    <t>多用户管理；</t>
-  </si>
-  <si>
-    <t>产品的快捷方式名直接按合同名称，改为“病例管理系统”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建患者的必须项包括：住院号、姓名，性别、年龄/出生日期，联系地址（增加区县码）、入院日期。增加红点放在相当标签上。当这些没有值时，点击“保存”时增加提醒信息不能保存。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建患者时目前没有“入院日期”，请补充入院日期；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快捷方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>患者列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建患者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从左向右显示内容依次为：姓名，性别，年龄，诊断（当患者有多个时，要显示最早一个值），入院日期（当患者有多个时，要显示最早一个值）；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建病历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建病历之后，需要在病历列表中能看到。目前保存后无法看到。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病历模板中的医院名，要改为“国家康复辅具研究中心附属康复医院”，科室要显示为“矫形骨科”。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -189,51 +268,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>李政</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见Sheet“登录页发版需求”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>病历管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>随访管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>患者新建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>患者管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级搜索统一名称。有叫“搜索”，有叫“检索”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块管理中隐藏掉“护理模板”，“门诊模板”，“病历文书类型设置”，“病历文书类型组设置”几个菜单入口。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病历新建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按模板要求，有的录入项需要支持单选，下拉框等控件。整个病历要支持TAB键下移焦点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨建波</t>
+    <t>1，登录之后直接跳转到“病历管理页”中。删除现有的菜单选择页。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2，将现有的菜单选择页中医院、科室的下拉框迁移到登录页中。内部逻辑保持不变。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3，去掉“CA登录”勾选框。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台的用户管理界面，现在没有确认。李政确认下现在的状况，并加到咱们版本中。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -241,27 +300,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王德红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  </t>
+    <t>登录用户管理；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -326,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -338,28 +377,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -393,7 +422,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -421,7 +450,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -435,7 +464,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -449,7 +478,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -463,7 +492,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -477,7 +506,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -528,8 +557,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2838095</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>285560</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1523810</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -597,23 +626,60 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>39280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="200025"/>
+          <a:ext cx="6257925" cy="3439705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G32" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G32">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="王德红"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G32" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:G32"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="序号" dataDxfId="6"/>
-    <tableColumn id="7" name="模块名" dataDxfId="5"/>
-    <tableColumn id="2" name="描述" dataDxfId="4"/>
-    <tableColumn id="3" name="优先级" dataDxfId="3"/>
+    <tableColumn id="1" name="序号" dataDxfId="8"/>
+    <tableColumn id="7" name="模块名" dataDxfId="7"/>
+    <tableColumn id="2" name="描述" dataDxfId="6"/>
+    <tableColumn id="3" name="优先级" dataDxfId="5"/>
     <tableColumn id="4" name="备注" dataDxfId="2"/>
-    <tableColumn id="6" name="责任人" dataDxfId="1"/>
-    <tableColumn id="5" name="状态" dataDxfId="0"/>
+    <tableColumn id="6" name="责任人" dataDxfId="0"/>
+    <tableColumn id="5" name="状态" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -912,18 +978,18 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="26" style="4" customWidth="1"/>
-    <col min="3" max="3" width="57.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12" style="4" customWidth="1"/>
-    <col min="5" max="5" width="46.75" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9" style="7"/>
+    <col min="1" max="1" width="11.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="26" style="7" customWidth="1"/>
+    <col min="3" max="3" width="57.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12" style="7" customWidth="1"/>
+    <col min="5" max="5" width="46.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="7" customWidth="1"/>
     <col min="7" max="7" width="9" style="3"/>
     <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="16384" width="9" style="3"/>
@@ -934,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -946,358 +1012,370 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="2" spans="1:10" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>34</v>
+      <c r="B2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+    <row r="3" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="E3" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+    <row r="7" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+    <row r="8" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
+      <c r="B8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+    <row r="10" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+    <row r="11" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>57</v>
+      <c r="F13" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>61</v>
+      <c r="B14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>52</v>
+      <c r="B15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>19</v>
+      <c r="B16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="56.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
+    <row r="17" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>54</v>
+      <c r="B17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
+    <row r="18" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>57</v>
+      <c r="F18" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>58</v>
+      <c r="B19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="37.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="37.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E20" s="5"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" ht="37.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E21" s="5"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1305,158 +1383,165 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="E25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="F26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" ht="37.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="37.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D29" s="8"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12" t="s">
-        <v>62</v>
+      <c r="E29" s="5"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="4">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>61</v>
+      <c r="B30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="3"/>
+      <c r="B31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4">
+    <row r="32" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="3"/>
+      <c r="B32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
@@ -1471,4 +1556,36 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="K4:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="4" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/待改进列表.xlsx
+++ b/待改进列表.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="需求列表" sheetId="1" r:id="rId1"/>
-    <sheet name="登录页发版需求-李政" sheetId="3" r:id="rId2"/>
+    <sheet name="登录页发版需求-李政" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,9 +124,6 @@
     <t>姓名检索失效；</t>
   </si>
   <si>
-    <t>保留医院+科室；</t>
-  </si>
-  <si>
     <t>不需要审核流程（保存后即可公开）；</t>
   </si>
   <si>
@@ -204,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高级搜索统一名称。有叫“搜索”，有叫“检索”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>模板管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,14 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,13 +287,45 @@
   </si>
   <si>
     <t>登录用户管理；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病历新建时，当双击模板之后，以及点击确认按钮后，能够新建病历。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级搜索统一名称。有叫“搜索”，有叫“检索”。统一为检索。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在登录页显示医院+科室，去掉按钮显示页。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级降低。2017/3/30 姚会新备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决。2017/3/30 姚会新备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复。2017/3/30 姚会新备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨建波</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -348,12 +366,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -361,41 +379,194 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="14">
     <dxf>
       <font>
         <strike val="0"/>
@@ -408,7 +579,277 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -423,104 +864,32 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -670,23 +1039,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G32" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G32" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A1:G32"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="序号" dataDxfId="8"/>
-    <tableColumn id="7" name="模块名" dataDxfId="7"/>
-    <tableColumn id="2" name="描述" dataDxfId="6"/>
-    <tableColumn id="3" name="优先级" dataDxfId="5"/>
+    <tableColumn id="1" name="序号" dataDxfId="6"/>
+    <tableColumn id="7" name="模块名" dataDxfId="5"/>
+    <tableColumn id="2" name="描述" dataDxfId="4"/>
+    <tableColumn id="3" name="优先级" dataDxfId="3"/>
     <tableColumn id="4" name="备注" dataDxfId="2"/>
-    <tableColumn id="6" name="责任人" dataDxfId="0"/>
-    <tableColumn id="5" name="状态" dataDxfId="1"/>
+    <tableColumn id="6" name="责任人" dataDxfId="1"/>
+    <tableColumn id="5" name="状态" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -978,579 +1347,642 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="26" style="7" customWidth="1"/>
-    <col min="3" max="3" width="57.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12" style="7" customWidth="1"/>
-    <col min="5" max="5" width="46.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9" style="3"/>
+    <col min="1" max="1" width="11.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="26" style="4" customWidth="1"/>
+    <col min="3" max="3" width="57.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12" style="4" customWidth="1"/>
+    <col min="5" max="5" width="46.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="B21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C25" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="14">
+        <v>25</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="14">
+        <v>26</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="14">
+        <v>27</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="14">
+        <v>28</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="14">
+        <v>29</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="C30" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="14">
+        <v>30</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="19">
+        <v>31</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7">
-        <v>23</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
-        <v>24</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7">
-        <v>25</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="7">
-        <v>26</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7">
-        <v>27</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="8">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="7">
-        <v>29</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" s="1"/>
+      <c r="F32" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="22"/>
     </row>
     <row r="33" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+  <conditionalFormatting sqref="D1:D21 D23:D1048576">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+      <formula>"优先"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22 F22">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"优先"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -1570,17 +2002,17 @@
   <sheetData>
     <row r="4" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/待改进列表.xlsx
+++ b/待改进列表.xlsx
@@ -11,12 +11,11 @@
     <sheet name="登录页发版需求-李政" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="80">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新建患者无反应，新建后应该默认选中此患者。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>所有的“入院时间”改为“入院日期”。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,10 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新建患者的必须项包括：住院号、姓名，性别、年龄/出生日期，联系地址（增加区县码）、入院日期。增加红点放在相当标签上。当这些没有值时，点击“保存”时增加提醒信息不能保存。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新建患者时目前没有“入院日期”，请补充入院日期；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,14 +310,67 @@
   </si>
   <si>
     <t>杨建波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>新建患者无反应（OK），</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新建后应该默认选中此患者。(未完成）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>新建患者的必须项包括：住院号、姓名，性别、年龄/出生日期，联系地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（增加区县码）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、入院日期。增加红点放在相当标签上。当这些没有值时，点击“保存”时增加提醒信息不能保存。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,8 +400,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +427,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -560,6 +626,33 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -957,15 +1050,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>122465</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>44418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3302000</xdr:colOff>
+      <xdr:colOff>3456215</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>246</xdr:rowOff>
+      <xdr:rowOff>56181</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -981,9 +1074,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6138333" y="5334000"/>
-          <a:ext cx="3302000" cy="1197674"/>
+        <a:xfrm flipV="1">
+          <a:off x="8245929" y="7732454"/>
+          <a:ext cx="3333750" cy="1209191"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1055,7 +1148,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1347,15 +1440,15 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="26" style="4" customWidth="1"/>
-    <col min="3" max="3" width="57.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="12" style="4" customWidth="1"/>
     <col min="5" max="5" width="46.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="13.125" style="4" customWidth="1"/>
@@ -1369,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
@@ -1381,7 +1474,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>2</v>
@@ -1393,15 +1486,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="16"/>
       <c r="F2" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="2"/>
@@ -1411,58 +1504,62 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="18"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="18"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
@@ -1470,7 +1567,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>10</v>
@@ -1478,7 +1575,7 @@
       <c r="D6" s="15"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="2"/>
@@ -1488,7 +1585,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>7</v>
@@ -1496,7 +1593,7 @@
       <c r="D7" s="15"/>
       <c r="E7" s="16"/>
       <c r="F7" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="2"/>
@@ -1506,7 +1603,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>14</v>
@@ -1514,10 +1611,10 @@
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
       <c r="F8" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -1526,18 +1623,18 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="16"/>
       <c r="F9" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -1546,7 +1643,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>9</v>
@@ -1554,7 +1651,7 @@
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
       <c r="F10" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="2"/>
@@ -1564,41 +1661,43 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>55</v>
-      </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="14">
+      <c r="A12" s="27">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16" t="s">
+      <c r="B12" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="18"/>
+      <c r="F12" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>77</v>
+      </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1606,7 +1705,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>11</v>
@@ -1614,10 +1713,10 @@
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
       <c r="F13" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -1626,7 +1725,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>15</v>
@@ -1634,47 +1733,51 @@
       <c r="D14" s="15"/>
       <c r="E14" s="16"/>
       <c r="F14" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="14">
+      <c r="A15" s="26">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="18"/>
+      <c r="B15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="14">
+      <c r="A16" s="26">
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="18"/>
+      <c r="B16" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
@@ -1682,15 +1785,15 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="16"/>
       <c r="F17" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="2"/>
@@ -1700,7 +1803,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>7</v>
@@ -1708,7 +1811,7 @@
       <c r="D18" s="15"/>
       <c r="E18" s="16"/>
       <c r="F18" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G18" s="18"/>
     </row>
@@ -1717,20 +1820,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
@@ -1738,18 +1841,18 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
@@ -1757,18 +1860,18 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
@@ -1776,18 +1879,18 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1795,56 +1898,58 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <v>23</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="18"/>
+      <c r="B24" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1852,15 +1957,15 @@
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="16"/>
       <c r="F26" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G26" s="18"/>
     </row>
@@ -1869,15 +1974,15 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="16"/>
       <c r="F27" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G27" s="18"/>
     </row>
@@ -1886,15 +1991,15 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="16"/>
       <c r="F28" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" s="18"/>
     </row>
@@ -1903,15 +2008,15 @@
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="16"/>
       <c r="F29" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G29" s="18"/>
     </row>
@@ -1920,15 +2025,15 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>38</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="16"/>
       <c r="F30" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G30" s="18"/>
     </row>
@@ -1937,15 +2042,15 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="16"/>
       <c r="F31" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G31" s="18"/>
     </row>
@@ -1954,17 +2059,17 @@
         <v>31</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G32" s="22"/>
     </row>
@@ -2002,17 +2107,17 @@
   <sheetData>
     <row r="4" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/待改进列表.xlsx
+++ b/待改进列表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="86">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -338,6 +338,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>除区县码，其它OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>新建患者的必须项包括：住院号、姓名，性别、年龄/出生日期，联系地址</t>
     </r>
@@ -350,7 +354,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（增加区县码）</t>
+      <t>（增加区县码-未完成）</t>
     </r>
     <r>
       <rPr>
@@ -365,12 +369,32 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨建波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,14 +419,6 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -560,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -628,18 +644,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,13 +657,79 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1058,7 +1128,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>3456215</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>56181</xdr:rowOff>
+      <xdr:rowOff>56182</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1132,16 +1202,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G32" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G32" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="A1:G32"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="序号" dataDxfId="6"/>
-    <tableColumn id="7" name="模块名" dataDxfId="5"/>
-    <tableColumn id="2" name="描述" dataDxfId="4"/>
-    <tableColumn id="3" name="优先级" dataDxfId="3"/>
-    <tableColumn id="4" name="备注" dataDxfId="2"/>
-    <tableColumn id="6" name="责任人" dataDxfId="1"/>
-    <tableColumn id="5" name="状态" dataDxfId="0"/>
+    <tableColumn id="1" name="序号" dataDxfId="12"/>
+    <tableColumn id="7" name="模块名" dataDxfId="11"/>
+    <tableColumn id="2" name="描述" dataDxfId="10"/>
+    <tableColumn id="3" name="优先级" dataDxfId="9"/>
+    <tableColumn id="4" name="备注" dataDxfId="8"/>
+    <tableColumn id="6" name="责任人" dataDxfId="7"/>
+    <tableColumn id="5" name="状态" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1440,8 +1510,8 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1481,7 +1551,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1499,7 +1569,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1519,42 +1589,42 @@
       <c r="G3" s="18"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26">
+    <row r="4" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="23" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="18" t="s">
         <v>76</v>
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="26">
+    <row r="5" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="23" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="18" t="s">
         <v>76</v>
       </c>
       <c r="H5" s="2"/>
@@ -1592,10 +1662,12 @@
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="29" t="s">
+        <v>18</v>
+      </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1610,10 +1682,10 @@
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="29" t="s">
         <v>58</v>
       </c>
       <c r="H8" s="2"/>
@@ -1630,10 +1702,10 @@
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="29" t="s">
         <v>52</v>
       </c>
       <c r="H9" s="2"/>
@@ -1650,10 +1722,12 @@
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="18"/>
+      <c r="F10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>18</v>
+      </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1673,29 +1747,29 @@
       <c r="F11" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="29" t="s">
         <v>53</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="27">
+      <c r="A12" s="23">
         <v>11</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="27" t="s">
         <v>77</v>
       </c>
       <c r="H12" s="2"/>
@@ -1741,46 +1815,46 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="26">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="23" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="29" t="s">
         <v>76</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="26">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="23" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="29" t="s">
         <v>76</v>
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -1798,24 +1872,28 @@
       <c r="G17" s="18"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="14">
+    <row r="18" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="16" t="s">
+      <c r="B18" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D18" s="10"/>
+      <c r="E18" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -1836,7 +1914,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -1855,7 +1933,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1916,22 +1994,22 @@
       <c r="A24" s="14">
         <v>23</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="23" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -1969,7 +2047,7 @@
       </c>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -1987,57 +2065,65 @@
       <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="14">
+      <c r="A28" s="23">
         <v>27</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="15" t="s">
+    </row>
+    <row r="29" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="23">
+        <v>29</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="18"/>
-    </row>
-    <row r="29" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="14">
-        <v>28</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29" s="18"/>
-    </row>
-    <row r="30" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="14">
-        <v>29</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" s="18"/>
-    </row>
-    <row r="31" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G30" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -2076,13 +2162,28 @@
     <row r="33" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D21 D23:D1048576">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+  <conditionalFormatting sqref="D1:D3 D23:D28 D30:D1048576 D19:D21 D6:D17">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"优先"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22 F22">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+      <formula>"优先"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"优先"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"优先"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D5">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"优先"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/待改进列表.xlsx
+++ b/待改进列表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,12 +389,36 @@
     <t>重复</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>没见改正。 2017/4/5 姚会新备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建病例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉上级查房医师。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建病历时，选择模板时上方的“模板名称”不能实现检索。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级降低，暂时不改。2017/4/5 姚会新备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +451,14 @@
     <font>
       <sz val="14"/>
       <color theme="5" tint="0.39997558519241921"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -576,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -663,22 +695,332 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="17">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -709,340 +1051,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1155,6 +1163,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2371429</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>14917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9184821" y="16437429"/>
+          <a:ext cx="2371429" cy="409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1202,23 +1248,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G32" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="A1:G32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G34" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:G34"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="序号" dataDxfId="12"/>
-    <tableColumn id="7" name="模块名" dataDxfId="11"/>
-    <tableColumn id="2" name="描述" dataDxfId="10"/>
-    <tableColumn id="3" name="优先级" dataDxfId="9"/>
-    <tableColumn id="4" name="备注" dataDxfId="8"/>
-    <tableColumn id="6" name="责任人" dataDxfId="7"/>
-    <tableColumn id="5" name="状态" dataDxfId="6"/>
+    <tableColumn id="1" name="序号" dataDxfId="6"/>
+    <tableColumn id="7" name="模块名" dataDxfId="5"/>
+    <tableColumn id="2" name="描述" dataDxfId="4"/>
+    <tableColumn id="3" name="优先级" dataDxfId="3"/>
+    <tableColumn id="4" name="备注" dataDxfId="2"/>
+    <tableColumn id="6" name="责任人" dataDxfId="1"/>
+    <tableColumn id="5" name="状态" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1507,11 +1553,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -2001,7 +2047,9 @@
         <v>26</v>
       </c>
       <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
+      <c r="E24" s="30" t="s">
+        <v>86</v>
+      </c>
       <c r="F24" s="15" t="s">
         <v>54</v>
       </c>
@@ -2159,31 +2207,64 @@
       </c>
       <c r="G32" s="22"/>
     </row>
-    <row r="33" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="19">
+        <v>32</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="31"/>
+    </row>
+    <row r="34" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="19">
+        <v>33</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="G34" s="31"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D3 D23:D28 D30:D1048576 D19:D21 D6:D17">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>"优先"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22 F22">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>"优先"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"优先"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"优先"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"优先"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/待改进列表.xlsx
+++ b/待改进列表.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="需求列表" sheetId="1" r:id="rId1"/>
-    <sheet name="登录页发版需求-李政" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="登录页发版需求-李政" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -125,10 +125,6 @@
     <t>随访需求（纸上）：</t>
   </si>
   <si>
-    <t>产品的快捷方式名直接按合同名称，改为“病例管理系统”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新建患者时目前没有“入院日期”，请补充入院日期；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,19 +245,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>见Sheet“登录页发版需求”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>病历管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1，登录之后直接跳转到“病历管理页”中。删除现有的菜单选择页。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2，将现有的菜单选择页中医院、科室的下拉框迁移到登录页中。内部逻辑保持不变。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -413,12 +397,28 @@
     <t>优先级降低，暂时不改。2017/4/5 姚会新备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>软件的快捷方式名、各控件命名，均改为“病例管理系统”、“病例”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见Sheet“登录页发版需求-李政”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2，将现有的菜单选择页中医院、科室的下拉框迁移到登录页中。内部逻辑保持不变。【先不改】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，登录之后直接跳转到“病历管理页”中。删除现有的菜单选择页。【先不改】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +462,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -608,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -703,6 +711,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1555,9 +1570,9 @@
   </sheetPr>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="A14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1578,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
@@ -1597,15 +1612,15 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="16"/>
@@ -1620,17 +1635,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="16" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="2"/>
@@ -1640,7 +1655,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>6</v>
@@ -1651,31 +1666,31 @@
         <v>20</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>76</v>
+      <c r="G5" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="H5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
@@ -1683,7 +1698,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>10</v>
@@ -1691,7 +1706,7 @@
       <c r="D6" s="15"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="2"/>
@@ -1701,7 +1716,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>7</v>
@@ -1721,7 +1736,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>14</v>
@@ -1732,46 +1747,46 @@
         <v>22</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="15" t="s">
+      <c r="B9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="29" t="s">
-        <v>52</v>
+      <c r="G9" s="33" t="s">
+        <v>51</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="15" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="33" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="2"/>
@@ -1781,20 +1796,20 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -1803,10 +1818,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="25" t="s">
@@ -1816,46 +1831,46 @@
         <v>20</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="14">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="18" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="14">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="18" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>18</v>
       </c>
       <c r="H14" s="2"/>
@@ -1865,10 +1880,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="16"/>
@@ -1876,7 +1891,7 @@
         <v>20</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1885,7 +1900,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>17</v>
@@ -1896,7 +1911,7 @@
         <v>23</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -1905,10 +1920,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="16"/>
@@ -1923,17 +1938,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>18</v>
@@ -1944,20 +1959,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1965,18 +1980,18 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1984,18 +1999,18 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
@@ -2003,18 +2018,18 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2022,18 +2037,18 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2041,20 +2056,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="30" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -2062,20 +2077,20 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2083,7 +2098,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>27</v>
@@ -2091,7 +2106,7 @@
       <c r="D26" s="15"/>
       <c r="E26" s="16"/>
       <c r="F26" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G26" s="18"/>
     </row>
@@ -2100,15 +2115,15 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="16"/>
       <c r="F27" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" s="18"/>
     </row>
@@ -2117,18 +2132,18 @@
         <v>27</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="25"/>
       <c r="F28" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2136,14 +2151,14 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>20</v>
@@ -2157,18 +2172,18 @@
         <v>29</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="25"/>
       <c r="F30" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -2176,7 +2191,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>28</v>
@@ -2184,7 +2199,7 @@
       <c r="D31" s="15"/>
       <c r="E31" s="16"/>
       <c r="F31" s="15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G31" s="18"/>
     </row>
@@ -2193,17 +2208,17 @@
         <v>31</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="21" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G32" s="22"/>
     </row>
@@ -2212,10 +2227,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="21"/>
@@ -2227,16 +2242,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="21" t="s">
         <v>87</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>91</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="31"/>
@@ -2281,25 +2296,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K4:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="4" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K4" t="s">
-        <v>62</v>
+      <c r="K4" s="34" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K6" t="s">
-        <v>63</v>
+      <c r="K6" s="34" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/待改进列表.xlsx
+++ b/待改进列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="需求列表" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="94">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,26 +241,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>病历管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3，去掉“CA登录”勾选框。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台的用户管理界面，现在没有确认。李政确认下现在的状况，并加到咱们版本中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>李政</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>病历管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3，去掉“CA登录”勾选框。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台的用户管理界面，现在没有确认。李政确认下现在的状况，并加到咱们版本中。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李政</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登录用户管理；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,55 +301,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>新建患者无反应（OK），</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="5" tint="0.39997558519241921"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>新建后应该默认选中此患者。(未完成）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>除区县码，其它OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>新建患者的必须项包括：住院号、姓名，性别、年龄/出生日期，联系地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="5" tint="0.39997558519241921"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（增加区县码-未完成）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、入院日期。增加红点放在相当标签上。当这些没有值时，点击“保存”时增加提醒信息不能保存。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -374,51 +325,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>新建病例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉上级查房医师。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建病历时，选择模板时上方的“模板名称”不能实现检索。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级降低，暂时不改。2017/4/5 姚会新备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件的快捷方式名、各控件命名，均改为“病例管理系统”、“病例”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见Sheet“登录页发版需求-李政”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2，将现有的菜单选择页中医院、科室的下拉框迁移到登录页中。内部逻辑保持不变。【先不改】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，登录之后直接跳转到“病历管理页”中。删除现有的菜单选择页。【先不改】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨建波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨建波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建患者的必须项包括：住院号、姓名，性别、年龄/出生日期，联系地址（增加区县码-未完成）、入院日期。增加红点放在相当标签上。当这些没有值时，点击“保存”时增加提醒信息不能保存。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>没见改正。 2017/4/5 姚会新备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新建病例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去掉上级查房医师。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建病历时，选择模板时上方的“模板名称”不能实现检索。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级降低，暂时不改。2017/4/5 姚会新备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件的快捷方式名、各控件命名，均改为“病例管理系统”、“病例”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>见Sheet“登录页发版需求-李政”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2，将现有的菜单选择页中医院、科室的下拉框迁移到登录页中。内部逻辑保持不变。【先不改】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1，登录之后直接跳转到“病历管理页”中。删除现有的菜单选择页。【先不改】</t>
+    <t>新建患者无反应（OK），新建后应该默认选中此患者。(未完成）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,14 +414,6 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="5" tint="0.39997558519241921"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -616,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -684,40 +647,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1279,7 +1254,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1570,9 +1545,9 @@
   </sheetPr>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="A14:G14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1613,18 +1588,18 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17" t="s">
+      <c r="C2" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="38" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="18"/>
@@ -1642,12 +1617,14 @@
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="18"/>
+        <v>70</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>88</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1666,7 +1643,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -1682,11 +1659,11 @@
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="26" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H5" s="2"/>
       <c r="J5" s="2" t="s">
@@ -1694,18 +1671,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14">
+      <c r="A6" s="37">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17" t="s">
+      <c r="D6" s="38"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="38" t="s">
         <v>50</v>
       </c>
       <c r="G6" s="18"/>
@@ -1716,7 +1693,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>7</v>
@@ -1726,7 +1703,7 @@
       <c r="F7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="23" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="2"/>
@@ -1746,7 +1723,7 @@
       <c r="F8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="23" t="s">
         <v>57</v>
       </c>
       <c r="H8" s="2"/>
@@ -1759,14 +1736,14 @@
         <v>39</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
       <c r="F9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="27" t="s">
         <v>51</v>
       </c>
       <c r="H9" s="2"/>
@@ -1786,7 +1763,7 @@
       <c r="F10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="27" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="2"/>
@@ -1808,30 +1785,30 @@
       <c r="F11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="23" t="s">
         <v>52</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="23">
+      <c r="A12" s="29">
         <v>11</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25" t="s">
+      <c r="C12" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="27" t="s">
-        <v>73</v>
+      <c r="G12" s="33" t="s">
+        <v>72</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -1883,15 +1860,15 @@
         <v>44</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="16"/>
       <c r="F15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="29" t="s">
-        <v>72</v>
+      <c r="G15" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1910,8 +1887,8 @@
       <c r="F16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="29" t="s">
-        <v>72</v>
+      <c r="G16" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -1928,9 +1905,11 @@
       <c r="D17" s="15"/>
       <c r="E17" s="16"/>
       <c r="F17" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="18"/>
+        <v>89</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>88</v>
+      </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -1938,17 +1917,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>18</v>
@@ -1966,7 +1945,7 @@
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>50</v>
@@ -1987,7 +1966,7 @@
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="12" t="s">
@@ -2006,7 +1985,7 @@
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="12" t="s">
@@ -2025,7 +2004,7 @@
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="12" t="s">
@@ -2044,7 +2023,7 @@
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="12" t="s">
@@ -2062,14 +2041,14 @@
         <v>26</v>
       </c>
       <c r="D24" s="15"/>
-      <c r="E24" s="30" t="s">
-        <v>82</v>
+      <c r="E24" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="29" t="s">
-        <v>72</v>
+      <c r="G24" s="23" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -2080,17 +2059,17 @@
         <v>32</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>50</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2128,22 +2107,22 @@
       <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="23">
+      <c r="A28" s="29">
         <v>27</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="24" t="s">
+      <c r="C28" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="28" t="s">
-        <v>75</v>
+      <c r="G28" s="32" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2158,7 +2137,7 @@
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>20</v>
@@ -2168,57 +2147,57 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="23">
+      <c r="A30" s="29">
         <v>29</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="24" t="s">
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="27" t="s">
-        <v>77</v>
+      <c r="G30" s="33" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="14">
+      <c r="A31" s="37">
         <v>30</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="15" t="s">
-        <v>71</v>
+      <c r="D31" s="38"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="38" t="s">
+        <v>70</v>
       </c>
       <c r="G31" s="18"/>
     </row>
     <row r="32" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="19">
+      <c r="A32" s="34">
         <v>31</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="21" t="s">
+      <c r="C32" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="35"/>
+      <c r="E32" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="35" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>62</v>
       </c>
       <c r="G32" s="22"/>
     </row>
@@ -2227,34 +2206,40 @@
         <v>32</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="21"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="31"/>
+      <c r="F33" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A34" s="19">
         <v>33</v>
       </c>
       <c r="B34" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>87</v>
-      </c>
       <c r="F34" s="20"/>
-      <c r="G34" s="31"/>
+      <c r="G34" s="25" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2296,25 +2281,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K4:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="4" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K4" s="34" t="s">
-        <v>91</v>
+      <c r="K4" s="28" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K6" s="34" t="s">
-        <v>90</v>
+      <c r="K6" s="28" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/待改进列表.xlsx
+++ b/待改进列表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="95">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
     <t>新建病历之后，在病历列表中能看到。</t>
   </si>
   <si>
-    <t>注册时的提示信息出现“22 EMR”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>切换患者时，上方显示的患者信息区域没有变化。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -382,14 +378,22 @@
   </si>
   <si>
     <t>新建患者无反应（OK），新建后应该默认选中此患者。(未完成）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/4/8 姚会新补充 没见改完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册时的提示信息出现“病历”，而不是“病例”。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,6 +437,13 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -579,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -692,6 +703,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1080,44 +1106,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2838095</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1523810</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5172075" y="1962150"/>
-          <a:ext cx="2838095" cy="1523810"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
       <xdr:colOff>122465</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>44418</xdr:rowOff>
@@ -1126,7 +1114,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>3456215</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>56182</xdr:rowOff>
+      <xdr:rowOff>56181</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1136,7 +1124,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1174,7 +1162,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1183,6 +1171,82 @@
         <a:xfrm>
           <a:off x="9184821" y="16437429"/>
           <a:ext cx="2371429" cy="409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3510642</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1755321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9184821" y="476250"/>
+          <a:ext cx="3510642" cy="1755321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3149667</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1578240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9239250" y="4095751"/>
+          <a:ext cx="3095238" cy="1523810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1254,7 +1318,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1546,8 +1610,8 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1568,62 +1632,64 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37">
+    <row r="2" spans="1:10" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>88</v>
+      <c r="F3" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -1632,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>6</v>
@@ -1640,10 +1706,10 @@
       <c r="D4" s="15"/>
       <c r="E4" s="16"/>
       <c r="F4" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -1652,7 +1718,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>4</v>
@@ -1660,71 +1726,73 @@
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37">
         <v>5</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="D6" s="38"/>
-      <c r="E6" s="24"/>
+      <c r="E6" s="43" t="s">
+        <v>93</v>
+      </c>
       <c r="F6" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="15" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14">
-        <v>7</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>57</v>
+      <c r="G8" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -1733,18 +1801,18 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
       <c r="F9" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -1753,7 +1821,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>9</v>
@@ -1761,32 +1829,32 @@
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>52</v>
+      <c r="B11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -1795,20 +1863,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="30"/>
       <c r="E12" s="31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -1817,18 +1885,18 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -1837,58 +1905,58 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="14">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>71</v>
+      <c r="B15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>70</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="14">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>71</v>
+      <c r="B16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>70</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -1897,18 +1965,18 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="16"/>
       <c r="F17" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -1917,20 +1985,20 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -1938,20 +2006,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1959,18 +2027,18 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1978,18 +2046,18 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
@@ -1997,18 +2065,18 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2016,18 +2084,18 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2035,20 +2103,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -2056,53 +2124,53 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="26" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="14">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="18"/>
+      <c r="B26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="16"/>
       <c r="F27" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" s="18"/>
     </row>
@@ -2111,18 +2179,18 @@
         <v>27</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="31"/>
       <c r="F28" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2130,20 +2198,20 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
@@ -2151,18 +2219,18 @@
         <v>29</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="31"/>
       <c r="F30" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -2170,15 +2238,15 @@
         <v>30</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="38"/>
       <c r="E31" s="24"/>
       <c r="F31" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G31" s="18"/>
     </row>
@@ -2187,17 +2255,17 @@
         <v>31</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="35" t="s">
         <v>60</v>
-      </c>
-      <c r="F32" s="35" t="s">
-        <v>61</v>
       </c>
       <c r="G32" s="22"/>
     </row>
@@ -2206,18 +2274,18 @@
         <v>32</v>
       </c>
       <c r="B33" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="21" t="s">
         <v>79</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>80</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="21"/>
       <c r="F33" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
@@ -2225,20 +2293,20 @@
         <v>33</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C34" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="E34" s="21" t="s">
         <v>82</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>83</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2289,17 +2357,17 @@
   <sheetData>
     <row r="4" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K4" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K6" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/待改进列表.xlsx
+++ b/待改进列表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="95">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>左侧患者列表中，默认要展示出第1页患者信息，按时间倒序排列。现状是点击“搜索”之后才显示数据。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>患者不管哪里，显示的名字要一致。</t>
   </si>
   <si>
@@ -145,10 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从左向右显示内容依次为：姓名，性别，年龄，诊断（当患者有多个时，要显示最早一个值），入院日期（当患者有多个时，要显示最早一个值）；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新建病历</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,10 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重复</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -386,6 +374,18 @@
   </si>
   <si>
     <t>注册时的提示信息出现“病历”，而不是“病例”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧患者列表中，默认要展示出第1页患者信息，按【更新时间】倒序排列。现状是点击“搜索”之后才显示数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从左向右显示内容依次为：姓名，住院号，手机号、入院诊断（显示新建患者时的诊断值）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -640,33 +640,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -684,9 +666,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -718,6 +697,33 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1114,7 +1120,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>3456215</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>56181</xdr:rowOff>
+      <xdr:rowOff>46656</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1610,8 +1616,8 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1632,19 +1638,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>2</v>
@@ -1652,23 +1658,23 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="42"/>
+      <c r="B2" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="35"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -1676,40 +1682,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>87</v>
-      </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>70</v>
+      <c r="B4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -1718,42 +1724,42 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="26" t="s">
-        <v>19</v>
+      <c r="F5" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37">
+      <c r="A6" s="30">
         <v>5</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="18"/>
+      <c r="B6" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="17"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1761,18 +1767,18 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
       <c r="F7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -1781,18 +1787,18 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>56</v>
+        <v>20</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -1801,18 +1807,18 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
       <c r="F9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>50</v>
+        <v>18</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -1821,18 +1827,18 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -1841,42 +1847,42 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="27" t="s">
-        <v>51</v>
-      </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="29">
+      <c r="A12" s="23">
         <v>11</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>71</v>
+      <c r="B12" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -1885,18 +1891,18 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -1905,18 +1911,18 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -1925,18 +1931,18 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
       <c r="F15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>70</v>
+        <v>18</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>68</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1945,38 +1951,38 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
       <c r="F16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>70</v>
+        <v>21</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>68</v>
       </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="14">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>87</v>
+      <c r="B17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -1985,20 +1991,20 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -2006,20 +2012,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -2027,18 +2033,18 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -2046,18 +2052,18 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
@@ -2065,18 +2071,18 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2084,39 +2090,39 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="14">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>70</v>
+      <c r="B24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -2124,20 +2130,20 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2145,15 +2151,15 @@
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
       <c r="F26" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G26" s="12"/>
     </row>
@@ -2162,35 +2168,35 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="16"/>
       <c r="F27" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="29">
+      <c r="A28" s="41">
         <v>27</v>
       </c>
-      <c r="B28" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>72</v>
+      <c r="B28" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="42"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2198,115 +2204,117 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="41">
+        <v>29</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="42"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="30">
+        <v>30</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" s="17"/>
+    </row>
+    <row r="32" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="27">
+        <v>31</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="28"/>
+      <c r="E32" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="37">
+        <v>32</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="37">
+        <v>33</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="29">
-        <v>29</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="37">
-        <v>30</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="18"/>
-    </row>
-    <row r="32" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="34">
-        <v>31</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="G32" s="22"/>
-    </row>
-    <row r="33" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="19">
-        <v>32</v>
-      </c>
-      <c r="B33" s="20" t="s">
+      <c r="D34" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="E34" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="19">
-        <v>33</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="25" t="s">
-        <v>87</v>
+      <c r="F34" s="38"/>
+      <c r="G34" s="40" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2337,7 +2345,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="10" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -2356,18 +2364,18 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="4" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K4" s="28" t="s">
-        <v>86</v>
+      <c r="K4" s="22" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K6" s="28" t="s">
-        <v>85</v>
+      <c r="K6" s="22" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/待改进列表.xlsx
+++ b/待改进列表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="104">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,6 +386,42 @@
   </si>
   <si>
     <t>未开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弄个固定值V1.0即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李政</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0字体过于粗，过于大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨建波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病历列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有数据场合，仍显示“没有数据！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李政</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,7 +429,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,6 +479,13 @@
       <sz val="14"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -590,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -723,6 +766,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1261,6 +1316,119 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3295238</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>704762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2830286" y="19417393"/>
+          <a:ext cx="3295238" cy="704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4422321</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1442134</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2830286" y="20220215"/>
+          <a:ext cx="4422321" cy="1401312"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2723809</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>3544036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect t="29175"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2830286" y="21853071"/>
+          <a:ext cx="2723809" cy="3544036"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1308,8 +1476,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G34" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:G34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G37" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:G37"/>
   <tableColumns count="7">
     <tableColumn id="1" name="序号" dataDxfId="6"/>
     <tableColumn id="7" name="模块名" dataDxfId="5"/>
@@ -1613,11 +1781,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -2316,6 +2484,63 @@
       <c r="G34" s="40" t="s">
         <v>84</v>
       </c>
+    </row>
+    <row r="35" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="46">
+        <v>34</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="48"/>
+      <c r="D35" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="49"/>
+    </row>
+    <row r="36" spans="1:7" ht="132" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="46">
+        <v>35</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="48"/>
+      <c r="D36" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="49"/>
+    </row>
+    <row r="37" spans="1:7" ht="292.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="46">
+        <v>36</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="48"/>
+      <c r="D37" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/待改进列表.xlsx
+++ b/待改进列表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="107">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -422,6 +422,18 @@
   </si>
   <si>
     <t>李政</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病历删除时没有删除提示框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开病历时，点击模板管理，页面异常。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/4/15 姚会新 补充</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -779,6 +791,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1476,8 +1512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G37" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:G37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G39" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:G39"/>
   <tableColumns count="7">
     <tableColumn id="1" name="序号" dataDxfId="6"/>
     <tableColumn id="7" name="模块名" dataDxfId="5"/>
@@ -1781,11 +1817,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1911,23 +1947,23 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+      <c r="A6" s="54">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="36" t="s">
+      <c r="D6" s="55"/>
+      <c r="E6" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2489,58 +2525,84 @@
       <c r="A35" s="46">
         <v>34</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="47" t="s">
+      <c r="C35" s="51"/>
+      <c r="D35" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="48" t="s">
+      <c r="E35" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="47" t="s">
+      <c r="F35" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="G35" s="49"/>
+      <c r="G35" s="52"/>
     </row>
     <row r="36" spans="1:7" ht="132" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="46">
+      <c r="A36" s="53">
         <v>35</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="47" t="s">
+      <c r="C36" s="51"/>
+      <c r="D36" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="F36" s="47" t="s">
+      <c r="F36" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="G36" s="49"/>
+      <c r="G36" s="52"/>
     </row>
     <row r="37" spans="1:7" ht="292.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="46">
+      <c r="A37" s="53">
         <v>36</v>
       </c>
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="47" t="s">
+      <c r="C37" s="51"/>
+      <c r="D37" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="48" t="s">
+      <c r="E37" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="F37" s="47" t="s">
+      <c r="F37" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="G37" s="49"/>
+      <c r="G37" s="52"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="46"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="47"/>
+      <c r="E38" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="47"/>
+      <c r="G38" s="49"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="46"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="47"/>
+      <c r="E39" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="47"/>
+      <c r="G39" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/待改进列表.xlsx
+++ b/待改进列表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="120">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -425,15 +425,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>病历删除时没有删除提示框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开病历时，点击模板管理，页面异常。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2017/4/15 姚会新 补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开（或新建）病历时，点击右上方模板管理按钮，页面异常。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/4/16 姚会新补充不需求的菜单。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李政</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病历书写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨建波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者信息编辑保存后，上方未能同步显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病历打开时瞬间，所有菜单会瞬间显示出来，然后再隐藏掉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能否去掉这一闪的现象。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病历编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病历删除时没有删除提示框，是直接删除了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码修改出现无关文字。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -815,6 +867,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1465,6 +1529,120 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4422321</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>3913711</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2830286" y="26057679"/>
+          <a:ext cx="4422321" cy="3913711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3864429</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1441140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2830287" y="30221464"/>
+          <a:ext cx="3864428" cy="1441140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4761905</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1561905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2830286" y="31949571"/>
+          <a:ext cx="4761905" cy="1561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1512,8 +1690,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G39" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:G39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G43" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:G43"/>
   <tableColumns count="7">
     <tableColumn id="1" name="序号" dataDxfId="6"/>
     <tableColumn id="7" name="模块名" dataDxfId="5"/>
@@ -1817,11 +1995,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -2580,29 +2758,105 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="46"/>
-      <c r="B38" s="47"/>
+      <c r="B38" s="47" t="s">
+        <v>108</v>
+      </c>
       <c r="C38" s="48" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D38" s="47"/>
       <c r="E38" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="F38" s="47"/>
+        <v>104</v>
+      </c>
+      <c r="F38" s="47" t="s">
+        <v>107</v>
+      </c>
       <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="46"/>
-      <c r="B39" s="47"/>
+      <c r="B39" s="47" t="s">
+        <v>108</v>
+      </c>
       <c r="C39" s="48" t="s">
         <v>105</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="49"/>
+    </row>
+    <row r="40" spans="1:7" ht="327.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="46"/>
+      <c r="B40" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="48"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="F39" s="47"/>
-      <c r="G39" s="49"/>
+      <c r="F40" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="49"/>
+    </row>
+    <row r="41" spans="1:7" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="46"/>
+      <c r="B41" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="48"/>
+      <c r="D41" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" s="49"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="46"/>
+      <c r="B42" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42" s="49"/>
+    </row>
+    <row r="43" spans="1:7" ht="151.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="58"/>
+      <c r="B43" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="60"/>
+      <c r="D43" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" s="61"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
